--- a/config_Release/xian_shi_hong_bao_server.xlsx
+++ b/config_Release/xian_shi_hong_bao_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id|任务id</t>
   </si>
@@ -73,20 +78,32 @@
     <t>xshb_042_deblocking_v0</t>
   </si>
   <si>
-    <t>携带金币20万</t>
+    <t>携带金币2万</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>携带金币2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0万</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,177 +115,51 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,194 +178,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -497,256 +202,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -794,70 +257,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
-    <cellStyle name="常规 4 2" xfId="51"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 4 2" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF99FF"/>
+      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1115,23 +537,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="4" customWidth="1"/>
@@ -1151,7 +572,7 @@
     <col min="22" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1" spans="1:23">
+    <row r="1" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +613,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:20">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1224,7 +645,7 @@
       <c r="Q2" s="9"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:20">
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1255,7 +676,7 @@
       <c r="Q3" s="9"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:20">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1286,7 +707,7 @@
       <c r="Q4" s="9"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:20">
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1317,7 +738,7 @@
       <c r="Q5" s="9"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:17">
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1347,7 +768,7 @@
       </c>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:17">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1358,7 +779,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1375,29 +796,52 @@
       </c>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="24.75" customHeight="1" spans="2:17">
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>30045</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>50</v>
+      </c>
       <c r="H8" s="6"/>
+      <c r="I8" s="1">
+        <v>9</v>
+      </c>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="24.75" customHeight="1" spans="3:17">
+    <row r="9" spans="1:23" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="8"/>
       <c r="H9" s="8"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="24.75" customHeight="1" spans="3:17">
+    <row r="10" spans="1:23" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="8"/>
       <c r="H10" s="8"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="24.75" customHeight="1" spans="5:17">
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="16.5" spans="1:17">
+    <row r="12" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1415,7 +859,7 @@
       <c r="O12" s="1"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="16.5" spans="1:17">
+    <row r="13" spans="1:23" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1433,192 +877,192 @@
       <c r="O13" s="1"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E14" s="6"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E15" s="6"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E16" s="6"/>
       <c r="H16" s="6"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="17" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E17" s="6"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="18" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E18" s="6"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="19" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E19" s="6"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="20" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E20" s="6"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="21" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E21" s="6"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="22" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E22" s="6"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="23" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E23" s="6"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="24" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="25" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="26" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="27" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="28" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="29" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q29" s="9"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="30" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="31" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q31" s="9"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15" customHeight="1" spans="17:17">
+    <row r="32" spans="5:17" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="16.5" spans="16:17">
+    <row r="33" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="P33" s="6"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="16.5" spans="9:17">
+    <row r="34" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="I34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="35" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q35" s="9"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="18.95" customHeight="1" spans="17:17">
+    <row r="36" spans="9:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q36" s="9"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="37" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q37" s="9"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="38" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="39" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="40" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q40" s="9"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="41" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="42" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="43" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="44" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="45" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="46" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q46" s="9"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="47" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="48" spans="9:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="49" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="50" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="Q50" s="9"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="51" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="52" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="53" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="18.95" customHeight="1" spans="17:20">
+    <row r="54" spans="5:20" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q54" s="9"/>
       <c r="T54" s="10"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="55" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q55" s="9"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="16.5" spans="14:17">
+    <row r="56" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="N56" s="6"/>
       <c r="Q56" s="9"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="57" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="Q57" s="9"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="58" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q58" s="9"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="59" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q59" s="9"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="60" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q60" s="9"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="61" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q61" s="9"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="62" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q62" s="9"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="63" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q63" s="9"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="64" spans="5:20" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q64" s="9"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="65" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q65" s="9"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="16.5" spans="17:17">
+    <row r="66" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="Q66" s="9"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="67" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E67" s="6"/>
       <c r="Q67" s="9"/>
     </row>
-    <row r="68" s="3" customFormat="1" ht="16.5" spans="1:17">
+    <row r="68" spans="1:17" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1637,19 +1081,19 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="9"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="69" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E69" s="6"/>
       <c r="Q69" s="9"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="70" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E70" s="6"/>
       <c r="Q70" s="9"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="16.5" spans="10:17">
+    <row r="71" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="J71" s="12"/>
       <c r="Q71" s="9"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="72" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -1657,2314 +1101,2314 @@
       <c r="J72" s="12"/>
       <c r="Q72" s="9"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="73" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="Q73" s="9"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="74" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="Q74" s="9"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="75" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="Q75" s="9"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="76" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="Q76" s="9"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="77" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="Q77" s="9"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="78" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="Q78" s="9"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="79" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="Q79" s="9"/>
     </row>
-    <row r="80" s="1" customFormat="1" spans="5:7">
+    <row r="80" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" s="1" customFormat="1" spans="5:7">
+    <row r="81" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" s="1" customFormat="1"/>
-    <row r="83" s="1" customFormat="1" spans="5:7">
+    <row r="82" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" s="1" customFormat="1" spans="5:7">
+    <row r="84" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="16.5" spans="5:17">
+    <row r="85" spans="5:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="I85" s="6"/>
       <c r="Q85" s="9"/>
     </row>
-    <row r="86" s="1" customFormat="1" spans="5:9">
+    <row r="86" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
-    <row r="87" s="1" customFormat="1" spans="5:9">
+    <row r="87" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
-    <row r="88" s="1" customFormat="1" spans="5:9">
+    <row r="88" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" s="1" customFormat="1" spans="5:9">
+    <row r="89" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" s="1" customFormat="1" spans="5:9">
+    <row r="90" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" s="1" customFormat="1" spans="5:9">
+    <row r="91" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" s="1" customFormat="1" spans="5:9">
+    <row r="92" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" s="1" customFormat="1" spans="5:9">
+    <row r="93" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" s="1" customFormat="1" spans="5:9">
+    <row r="94" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" s="1" customFormat="1" spans="5:9">
+    <row r="95" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" s="1" customFormat="1" spans="5:9">
+    <row r="96" spans="5:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" s="1" customFormat="1" spans="5:9">
+    <row r="97" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" s="1" customFormat="1" spans="5:9">
+    <row r="98" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" s="1" customFormat="1" spans="5:9">
+    <row r="99" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" s="1" customFormat="1" spans="5:9">
+    <row r="100" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" s="1" customFormat="1" spans="5:9">
+    <row r="101" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" s="1" customFormat="1" spans="5:9">
+    <row r="102" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" s="1" customFormat="1" spans="5:9">
+    <row r="103" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" s="1" customFormat="1" spans="5:9">
+    <row r="104" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" s="1" customFormat="1" spans="5:9">
+    <row r="105" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" s="1" customFormat="1" spans="5:9">
+    <row r="106" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
-    <row r="107" s="1" customFormat="1" spans="5:9">
+    <row r="107" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
-    <row r="108" s="1" customFormat="1" spans="5:9">
+    <row r="108" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
-    <row r="109" s="1" customFormat="1" spans="5:9">
+    <row r="109" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
-    <row r="110" s="1" customFormat="1" spans="5:9">
+    <row r="110" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
-    <row r="111" s="1" customFormat="1" spans="5:9">
+    <row r="111" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
-    <row r="112" s="1" customFormat="1" spans="5:9">
+    <row r="112" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
-    <row r="113" s="1" customFormat="1" spans="5:9">
+    <row r="113" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
-    <row r="114" s="1" customFormat="1" spans="5:9">
+    <row r="114" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
-    <row r="115" s="1" customFormat="1" spans="5:9">
+    <row r="115" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
-    <row r="116" s="1" customFormat="1" spans="5:9">
+    <row r="116" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
-    <row r="117" s="1" customFormat="1" spans="5:9">
+    <row r="117" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
-    <row r="118" s="1" customFormat="1" spans="5:9">
+    <row r="118" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
-    <row r="119" s="1" customFormat="1" spans="5:9">
+    <row r="119" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
-    <row r="120" s="1" customFormat="1" spans="5:9">
+    <row r="120" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
-    <row r="121" s="1" customFormat="1" spans="5:9">
+    <row r="121" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
-    <row r="122" s="1" customFormat="1" spans="5:9">
+    <row r="122" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E122" s="6"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
-    <row r="123" s="1" customFormat="1" spans="5:9">
+    <row r="123" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
-    <row r="124" s="1" customFormat="1" spans="5:9">
+    <row r="124" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
-    <row r="125" s="1" customFormat="1" spans="5:9">
+    <row r="125" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
-    <row r="126" s="1" customFormat="1" spans="5:8">
+    <row r="126" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" s="1" customFormat="1" spans="5:9">
+    <row r="127" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
-    <row r="128" s="1" customFormat="1" spans="5:9">
+    <row r="128" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
-    <row r="129" s="1" customFormat="1" spans="5:9">
+    <row r="129" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
-    <row r="130" s="1" customFormat="1" spans="5:8">
+    <row r="130" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" s="1" customFormat="1" spans="5:9">
+    <row r="131" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" s="1" customFormat="1" spans="5:9">
+    <row r="132" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="I132" s="6"/>
     </row>
-    <row r="133" s="1" customFormat="1" spans="5:9">
+    <row r="133" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="I133" s="6"/>
     </row>
-    <row r="134" s="1" customFormat="1" spans="5:9">
+    <row r="134" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
     </row>
-    <row r="135" s="1" customFormat="1" spans="5:9">
+    <row r="135" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
     </row>
-    <row r="136" s="1" customFormat="1" spans="5:9">
+    <row r="136" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
     </row>
-    <row r="137" s="1" customFormat="1" spans="5:9">
+    <row r="137" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
     </row>
-    <row r="138" s="1" customFormat="1" spans="5:9">
+    <row r="138" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
     </row>
-    <row r="139" s="1" customFormat="1" spans="5:9">
+    <row r="139" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
     </row>
-    <row r="140" s="1" customFormat="1" spans="5:9">
+    <row r="140" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
     </row>
-    <row r="141" s="1" customFormat="1" spans="5:9">
+    <row r="141" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
     </row>
-    <row r="142" s="1" customFormat="1" spans="5:9">
+    <row r="142" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
     </row>
-    <row r="143" s="1" customFormat="1" spans="5:9">
+    <row r="143" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
     </row>
-    <row r="144" s="1" customFormat="1" spans="5:9">
+    <row r="144" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
     </row>
-    <row r="145" s="1" customFormat="1" spans="5:9">
+    <row r="145" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
     </row>
-    <row r="146" s="1" customFormat="1" spans="5:9">
+    <row r="146" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
     </row>
-    <row r="147" s="1" customFormat="1" spans="5:9">
+    <row r="147" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
     </row>
-    <row r="148" s="1" customFormat="1" spans="5:9">
+    <row r="148" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
     </row>
-    <row r="149" s="1" customFormat="1" spans="5:9">
+    <row r="149" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" s="1" customFormat="1" spans="5:9">
+    <row r="150" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
     </row>
-    <row r="151" s="1" customFormat="1" spans="5:9">
+    <row r="151" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
     </row>
-    <row r="152" s="1" customFormat="1" spans="5:9">
+    <row r="152" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
     </row>
-    <row r="153" s="1" customFormat="1" spans="5:9">
+    <row r="153" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
     </row>
-    <row r="154" s="1" customFormat="1" spans="5:9">
+    <row r="154" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
     </row>
-    <row r="155" s="1" customFormat="1" spans="5:9">
+    <row r="155" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E155" s="6"/>
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
     </row>
-    <row r="156" s="1" customFormat="1" spans="5:9">
+    <row r="156" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
     </row>
-    <row r="157" s="1" customFormat="1" spans="5:9">
+    <row r="157" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
     </row>
-    <row r="158" s="1" customFormat="1" spans="5:9">
+    <row r="158" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
     </row>
-    <row r="159" s="1" customFormat="1" spans="5:9">
+    <row r="159" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
     </row>
-    <row r="160" s="1" customFormat="1" spans="5:9">
+    <row r="160" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
     </row>
-    <row r="161" s="1" customFormat="1" spans="5:9">
+    <row r="161" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
     </row>
-    <row r="162" s="1" customFormat="1" spans="5:9">
+    <row r="162" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
     </row>
-    <row r="163" s="1" customFormat="1" spans="5:9">
+    <row r="163" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
     </row>
-    <row r="164" s="1" customFormat="1" spans="5:9">
+    <row r="164" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
     </row>
-    <row r="165" s="1" customFormat="1" spans="5:9">
+    <row r="165" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
     </row>
-    <row r="166" s="1" customFormat="1" spans="5:9">
+    <row r="166" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
     </row>
-    <row r="167" s="1" customFormat="1" spans="5:9">
+    <row r="167" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
     </row>
-    <row r="168" s="1" customFormat="1" spans="5:9">
+    <row r="168" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
     </row>
-    <row r="169" s="1" customFormat="1" spans="5:9">
+    <row r="169" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
     </row>
-    <row r="170" s="1" customFormat="1" spans="5:9">
+    <row r="170" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
     </row>
-    <row r="171" s="1" customFormat="1" spans="5:9">
+    <row r="171" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
     </row>
-    <row r="172" s="1" customFormat="1" spans="5:9">
+    <row r="172" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
     </row>
-    <row r="173" s="1" customFormat="1" spans="5:9">
+    <row r="173" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
     </row>
-    <row r="174" s="1" customFormat="1" spans="5:9">
+    <row r="174" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
     </row>
-    <row r="175" s="1" customFormat="1" spans="5:5">
+    <row r="175" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E175" s="6"/>
     </row>
-    <row r="176" s="1" customFormat="1" spans="5:5">
+    <row r="176" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E176" s="6"/>
     </row>
-    <row r="177" s="1" customFormat="1" spans="5:7">
+    <row r="177" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" s="1" customFormat="1" spans="5:7">
+    <row r="178" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" s="1" customFormat="1" spans="5:9">
+    <row r="179" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
     </row>
-    <row r="180" s="1" customFormat="1" spans="5:9">
+    <row r="180" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
     </row>
-    <row r="181" s="1" customFormat="1" spans="5:9">
+    <row r="181" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
     </row>
-    <row r="182" s="1" customFormat="1" spans="5:9">
+    <row r="182" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
     </row>
-    <row r="183" s="1" customFormat="1" spans="5:9">
+    <row r="183" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
     </row>
-    <row r="184" s="1" customFormat="1" spans="5:9">
+    <row r="184" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
     </row>
-    <row r="185" s="1" customFormat="1" spans="5:9">
+    <row r="185" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
     </row>
-    <row r="186" s="1" customFormat="1" spans="5:9">
+    <row r="186" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
     </row>
-    <row r="187" s="1" customFormat="1" spans="5:9">
+    <row r="187" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
     </row>
-    <row r="188" s="1" customFormat="1" spans="5:9">
+    <row r="188" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
     </row>
-    <row r="189" s="1" customFormat="1" spans="5:9">
+    <row r="189" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
     </row>
-    <row r="190" s="1" customFormat="1" spans="5:9">
+    <row r="190" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
     </row>
-    <row r="191" s="1" customFormat="1" spans="5:9">
+    <row r="191" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
     </row>
-    <row r="192" s="1" customFormat="1" spans="5:9">
+    <row r="192" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
     </row>
-    <row r="193" s="1" customFormat="1" spans="5:9">
+    <row r="193" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
     </row>
-    <row r="194" s="1" customFormat="1" spans="5:9">
+    <row r="194" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
     </row>
-    <row r="195" s="1" customFormat="1" spans="5:9">
+    <row r="195" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
     </row>
-    <row r="196" s="1" customFormat="1" spans="5:9">
+    <row r="196" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
     </row>
-    <row r="197" s="1" customFormat="1" spans="5:9">
+    <row r="197" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
     </row>
-    <row r="198" s="1" customFormat="1" spans="5:9">
+    <row r="198" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
     </row>
-    <row r="199" s="1" customFormat="1" spans="9:9">
+    <row r="199" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="I199" s="6"/>
     </row>
-    <row r="200" s="1" customFormat="1" spans="5:9">
+    <row r="200" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
     </row>
-    <row r="201" s="1" customFormat="1" spans="5:9">
+    <row r="201" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
     </row>
-    <row r="202" s="1" customFormat="1" spans="5:9">
+    <row r="202" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
     </row>
-    <row r="203" s="1" customFormat="1" spans="5:9">
+    <row r="203" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
     </row>
-    <row r="204" s="1" customFormat="1" spans="5:9">
+    <row r="204" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
     </row>
-    <row r="205" s="1" customFormat="1" spans="5:9">
+    <row r="205" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
     </row>
-    <row r="206" s="1" customFormat="1" spans="5:9">
+    <row r="206" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
     </row>
-    <row r="207" s="1" customFormat="1" spans="5:9">
+    <row r="207" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
     </row>
-    <row r="208" s="1" customFormat="1" spans="5:9">
+    <row r="208" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
     </row>
-    <row r="209" s="1" customFormat="1" spans="5:9">
+    <row r="209" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
     </row>
-    <row r="210" s="1" customFormat="1" spans="5:9">
+    <row r="210" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
     </row>
-    <row r="211" s="1" customFormat="1" spans="5:9">
+    <row r="211" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
     </row>
-    <row r="212" s="1" customFormat="1" spans="5:8">
+    <row r="212" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
-    <row r="213" s="1" customFormat="1" spans="5:9">
+    <row r="213" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
     </row>
-    <row r="214" s="1" customFormat="1" spans="5:9">
+    <row r="214" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
     </row>
-    <row r="215" s="1" customFormat="1" spans="5:9">
+    <row r="215" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
     </row>
-    <row r="216" s="1" customFormat="1" spans="5:9">
+    <row r="216" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
       <c r="I216" s="6"/>
     </row>
-    <row r="217" s="1" customFormat="1" spans="5:9">
+    <row r="217" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
       <c r="I217" s="6"/>
     </row>
-    <row r="218" s="1" customFormat="1" spans="5:9">
+    <row r="218" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
       <c r="I218" s="6"/>
     </row>
-    <row r="219" s="1" customFormat="1" spans="5:9">
+    <row r="219" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
       <c r="I219" s="6"/>
     </row>
-    <row r="220" s="1" customFormat="1" spans="5:9">
+    <row r="220" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
     </row>
-    <row r="221" s="1" customFormat="1" spans="5:9">
+    <row r="221" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
       <c r="I221" s="6"/>
     </row>
-    <row r="222" s="1" customFormat="1" spans="5:9">
+    <row r="222" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
     </row>
-    <row r="223" s="1" customFormat="1" spans="5:8">
+    <row r="223" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
       <c r="H223" s="6"/>
     </row>
-    <row r="224" s="1" customFormat="1" spans="5:9">
+    <row r="224" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E224" s="6"/>
       <c r="H224" s="6"/>
       <c r="I224" s="6"/>
     </row>
-    <row r="225" s="1" customFormat="1" spans="5:9">
+    <row r="225" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E225" s="6"/>
       <c r="H225" s="6"/>
       <c r="I225" s="6"/>
     </row>
-    <row r="226" s="1" customFormat="1" spans="5:9">
+    <row r="226" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E226" s="6"/>
       <c r="H226" s="6"/>
       <c r="I226" s="6"/>
     </row>
-    <row r="227" s="1" customFormat="1" spans="5:9">
+    <row r="227" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E227" s="6"/>
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
     </row>
-    <row r="228" s="1" customFormat="1" spans="5:9">
+    <row r="228" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E228" s="6"/>
       <c r="H228" s="6"/>
       <c r="I228" s="6"/>
     </row>
-    <row r="229" s="1" customFormat="1" spans="5:9">
+    <row r="229" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E229" s="6"/>
       <c r="H229" s="6"/>
       <c r="I229" s="6"/>
     </row>
-    <row r="230" s="1" customFormat="1" spans="5:9">
+    <row r="230" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E230" s="6"/>
       <c r="H230" s="6"/>
       <c r="I230" s="6"/>
     </row>
-    <row r="231" s="1" customFormat="1" spans="5:9">
+    <row r="231" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E231" s="6"/>
       <c r="H231" s="6"/>
       <c r="I231" s="6"/>
     </row>
-    <row r="232" s="1" customFormat="1" spans="5:8">
+    <row r="232" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
     </row>
-    <row r="233" s="1" customFormat="1" spans="5:9">
+    <row r="233" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
       <c r="I233" s="6"/>
     </row>
-    <row r="234" s="1" customFormat="1" spans="5:9">
+    <row r="234" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6"/>
     </row>
-    <row r="235" s="1" customFormat="1" spans="5:9">
+    <row r="235" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
       <c r="I235" s="6"/>
     </row>
-    <row r="236" s="1" customFormat="1" spans="5:9">
+    <row r="236" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
       <c r="I236" s="6"/>
     </row>
-    <row r="237" s="1" customFormat="1" spans="5:9">
+    <row r="237" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
       <c r="I237" s="6"/>
     </row>
-    <row r="238" s="1" customFormat="1" spans="5:9">
+    <row r="238" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
       <c r="I238" s="6"/>
     </row>
-    <row r="239" s="1" customFormat="1" spans="5:9">
+    <row r="239" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
       <c r="H239" s="6"/>
       <c r="I239" s="6"/>
     </row>
-    <row r="240" s="1" customFormat="1" spans="5:9">
+    <row r="240" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
       <c r="I240" s="6"/>
     </row>
-    <row r="241" s="1" customFormat="1" spans="5:9">
+    <row r="241" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
       <c r="H241" s="6"/>
       <c r="I241" s="6"/>
     </row>
-    <row r="242" s="1" customFormat="1" spans="5:9">
+    <row r="242" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
       <c r="I242" s="6"/>
     </row>
-    <row r="243" s="1" customFormat="1" spans="5:9">
+    <row r="243" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
       <c r="I243" s="6"/>
     </row>
-    <row r="244" s="1" customFormat="1" spans="5:9">
+    <row r="244" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="6"/>
       <c r="H244" s="6"/>
       <c r="I244" s="6"/>
     </row>
-    <row r="245" s="1" customFormat="1" spans="5:9">
+    <row r="245" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
       <c r="H245" s="6"/>
       <c r="I245" s="6"/>
     </row>
-    <row r="246" s="1" customFormat="1" spans="5:9">
+    <row r="246" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
       <c r="H246" s="6"/>
       <c r="I246" s="6"/>
     </row>
-    <row r="247" s="1" customFormat="1" spans="5:9">
+    <row r="247" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
       <c r="I247" s="6"/>
     </row>
-    <row r="248" s="1" customFormat="1" spans="5:9">
+    <row r="248" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
       <c r="I248" s="6"/>
     </row>
-    <row r="249" s="1" customFormat="1" spans="5:9">
+    <row r="249" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
       <c r="H249" s="6"/>
       <c r="I249" s="6"/>
     </row>
-    <row r="250" s="1" customFormat="1" spans="5:9">
+    <row r="250" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
       <c r="I250" s="6"/>
     </row>
-    <row r="251" s="1" customFormat="1" spans="5:9">
+    <row r="251" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="6"/>
       <c r="H251" s="6"/>
       <c r="I251" s="6"/>
     </row>
-    <row r="252" s="1" customFormat="1" spans="5:9">
+    <row r="252" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
       <c r="H252" s="6"/>
       <c r="I252" s="6"/>
     </row>
-    <row r="253" s="1" customFormat="1" spans="5:9">
+    <row r="253" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
       <c r="H253" s="6"/>
       <c r="I253" s="6"/>
     </row>
-    <row r="254" s="1" customFormat="1" spans="5:9">
+    <row r="254" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
       <c r="H254" s="6"/>
       <c r="I254" s="6"/>
     </row>
-    <row r="255" s="1" customFormat="1" spans="5:9">
+    <row r="255" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
       <c r="I255" s="6"/>
     </row>
-    <row r="256" s="1" customFormat="1" spans="8:9">
+    <row r="256" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H256" s="6"/>
       <c r="I256" s="6"/>
     </row>
-    <row r="257" s="1" customFormat="1" spans="5:9">
+    <row r="257" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="6"/>
       <c r="H257" s="6"/>
       <c r="I257" s="6"/>
     </row>
-    <row r="258" s="1" customFormat="1" spans="5:9">
+    <row r="258" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
       <c r="H258" s="6"/>
       <c r="I258" s="6"/>
     </row>
-    <row r="259" s="1" customFormat="1" spans="5:9">
+    <row r="259" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
       <c r="I259" s="6"/>
     </row>
-    <row r="260" s="1" customFormat="1" spans="5:9">
+    <row r="260" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
       <c r="H260" s="6"/>
       <c r="I260" s="6"/>
     </row>
-    <row r="261" s="1" customFormat="1" spans="5:9">
+    <row r="261" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="6"/>
       <c r="H261" s="6"/>
       <c r="I261" s="6"/>
     </row>
-    <row r="262" s="1" customFormat="1" spans="5:9">
+    <row r="262" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
       <c r="H262" s="6"/>
       <c r="I262" s="6"/>
     </row>
-    <row r="263" s="1" customFormat="1" spans="5:9">
+    <row r="263" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
       <c r="H263" s="6"/>
       <c r="I263" s="6"/>
     </row>
-    <row r="264" s="1" customFormat="1" spans="5:9">
+    <row r="264" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
       <c r="H264" s="6"/>
       <c r="I264" s="6"/>
     </row>
-    <row r="265" s="1" customFormat="1" spans="5:9">
+    <row r="265" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
       <c r="I265" s="6"/>
     </row>
-    <row r="266" s="1" customFormat="1" spans="5:8">
+    <row r="266" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
     </row>
-    <row r="267" s="1" customFormat="1" spans="5:9">
+    <row r="267" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
       <c r="H267" s="6"/>
       <c r="I267" s="6"/>
     </row>
-    <row r="268" s="1" customFormat="1" spans="5:9">
+    <row r="268" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
       <c r="I268" s="6"/>
     </row>
-    <row r="269" s="1" customFormat="1" spans="5:9">
+    <row r="269" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
       <c r="H269" s="6"/>
       <c r="I269" s="6"/>
     </row>
-    <row r="270" s="1" customFormat="1" spans="5:9">
+    <row r="270" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
       <c r="I270" s="6"/>
     </row>
-    <row r="271" s="1" customFormat="1" spans="5:9">
+    <row r="271" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
       <c r="H271" s="6"/>
       <c r="I271" s="6"/>
     </row>
-    <row r="272" s="1" customFormat="1" spans="5:8">
+    <row r="272" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
     </row>
-    <row r="273" s="1" customFormat="1" spans="5:9">
+    <row r="273" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
       <c r="I273" s="6"/>
     </row>
-    <row r="274" s="1" customFormat="1" spans="5:9">
+    <row r="274" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
       <c r="I274" s="6"/>
     </row>
-    <row r="275" s="1" customFormat="1" spans="5:9">
+    <row r="275" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
       <c r="I275" s="6"/>
     </row>
-    <row r="276" s="1" customFormat="1" spans="5:9">
+    <row r="276" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
       <c r="I276" s="6"/>
     </row>
-    <row r="277" s="1" customFormat="1" spans="5:9">
+    <row r="277" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
       <c r="H277" s="6"/>
       <c r="I277" s="6"/>
     </row>
-    <row r="278" s="1" customFormat="1" spans="5:9">
+    <row r="278" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
       <c r="H278" s="6"/>
       <c r="I278" s="6"/>
     </row>
-    <row r="279" s="1" customFormat="1" spans="5:9">
+    <row r="279" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
       <c r="H279" s="6"/>
       <c r="I279" s="6"/>
     </row>
-    <row r="280" s="1" customFormat="1" spans="5:9">
+    <row r="280" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
       <c r="H280" s="6"/>
       <c r="I280" s="6"/>
     </row>
-    <row r="281" s="1" customFormat="1" spans="5:9">
+    <row r="281" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
       <c r="H281" s="6"/>
       <c r="I281" s="6"/>
     </row>
-    <row r="282" s="1" customFormat="1" spans="5:9">
+    <row r="282" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
       <c r="H282" s="6"/>
       <c r="I282" s="6"/>
     </row>
-    <row r="283" s="1" customFormat="1" spans="5:9">
+    <row r="283" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
       <c r="H283" s="6"/>
       <c r="I283" s="6"/>
     </row>
-    <row r="284" s="1" customFormat="1" spans="5:9">
+    <row r="284" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
       <c r="H284" s="6"/>
       <c r="I284" s="6"/>
     </row>
-    <row r="285" s="1" customFormat="1" spans="5:9">
+    <row r="285" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
       <c r="H285" s="6"/>
       <c r="I285" s="6"/>
     </row>
-    <row r="286" s="1" customFormat="1" spans="5:9">
+    <row r="286" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
       <c r="H286" s="6"/>
       <c r="I286" s="6"/>
     </row>
-    <row r="287" s="1" customFormat="1" spans="5:9">
+    <row r="287" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
       <c r="H287" s="6"/>
       <c r="I287" s="6"/>
     </row>
-    <row r="288" s="1" customFormat="1" spans="5:9">
+    <row r="288" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
       <c r="H288" s="6"/>
       <c r="I288" s="6"/>
     </row>
-    <row r="289" s="1" customFormat="1" spans="5:9">
+    <row r="289" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
       <c r="H289" s="6"/>
       <c r="I289" s="6"/>
     </row>
-    <row r="290" s="1" customFormat="1" spans="5:9">
+    <row r="290" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
       <c r="I290" s="6"/>
     </row>
-    <row r="291" s="1" customFormat="1" spans="5:9">
+    <row r="291" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
       <c r="H291" s="6"/>
       <c r="I291" s="6"/>
     </row>
-    <row r="292" s="1" customFormat="1" spans="5:9">
+    <row r="292" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
       <c r="H292" s="6"/>
       <c r="I292" s="6"/>
     </row>
-    <row r="293" s="1" customFormat="1" spans="5:9">
+    <row r="293" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
       <c r="H293" s="6"/>
       <c r="I293" s="6"/>
     </row>
-    <row r="294" s="1" customFormat="1" spans="5:9">
+    <row r="294" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
       <c r="H294" s="6"/>
       <c r="I294" s="6"/>
     </row>
-    <row r="295" s="1" customFormat="1" spans="5:9">
+    <row r="295" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
       <c r="H295" s="6"/>
       <c r="I295" s="6"/>
     </row>
-    <row r="296" s="1" customFormat="1" spans="5:9">
+    <row r="296" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
     </row>
-    <row r="297" s="1" customFormat="1" spans="5:9">
+    <row r="297" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
       <c r="H297" s="6"/>
       <c r="I297" s="6"/>
     </row>
-    <row r="298" s="1" customFormat="1" spans="5:9">
+    <row r="298" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
       <c r="H298" s="6"/>
       <c r="I298" s="6"/>
     </row>
-    <row r="299" s="1" customFormat="1" spans="5:8">
+    <row r="299" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
       <c r="H299" s="6"/>
     </row>
-    <row r="300" s="1" customFormat="1" spans="6:9">
+    <row r="300" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
       <c r="I300" s="6"/>
     </row>
-    <row r="301" s="1" customFormat="1" spans="5:9">
+    <row r="301" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
       <c r="H301" s="6"/>
       <c r="I301" s="6"/>
     </row>
-    <row r="302" s="1" customFormat="1" spans="5:9">
+    <row r="302" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
       <c r="H302" s="6"/>
       <c r="I302" s="6"/>
     </row>
-    <row r="303" s="1" customFormat="1" spans="5:9">
+    <row r="303" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
       <c r="H303" s="6"/>
       <c r="I303" s="6"/>
     </row>
-    <row r="304" s="1" customFormat="1" spans="5:9">
+    <row r="304" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
       <c r="H304" s="6"/>
       <c r="I304" s="6"/>
     </row>
-    <row r="305" s="1" customFormat="1" spans="5:9">
+    <row r="305" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
     </row>
-    <row r="306" s="1" customFormat="1" spans="5:9">
+    <row r="306" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
     </row>
-    <row r="307" s="1" customFormat="1" spans="5:9">
+    <row r="307" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
     </row>
-    <row r="308" s="1" customFormat="1" spans="5:9">
+    <row r="308" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
     </row>
-    <row r="309" s="1" customFormat="1" spans="5:9">
+    <row r="309" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
     </row>
-    <row r="310" s="1" customFormat="1" spans="5:9">
+    <row r="310" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
     </row>
-    <row r="311" s="1" customFormat="1" spans="5:9">
+    <row r="311" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
       <c r="H311" s="6"/>
       <c r="I311" s="6"/>
     </row>
-    <row r="312" s="1" customFormat="1" spans="5:9">
+    <row r="312" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
       <c r="H312" s="6"/>
       <c r="I312" s="6"/>
     </row>
-    <row r="313" s="1" customFormat="1" spans="5:9">
+    <row r="313" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
       <c r="I313" s="6"/>
     </row>
-    <row r="314" s="1" customFormat="1" spans="5:9">
+    <row r="314" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
       <c r="H314" s="6"/>
       <c r="I314" s="6"/>
     </row>
-    <row r="315" s="1" customFormat="1" spans="5:9">
+    <row r="315" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
       <c r="H315" s="6"/>
       <c r="I315" s="6"/>
     </row>
-    <row r="316" s="1" customFormat="1" spans="5:9">
+    <row r="316" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
       <c r="H316" s="6"/>
       <c r="I316" s="6"/>
     </row>
-    <row r="317" s="1" customFormat="1" spans="5:9">
+    <row r="317" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
       <c r="H317" s="6"/>
       <c r="I317" s="6"/>
     </row>
-    <row r="318" s="1" customFormat="1" spans="5:9">
+    <row r="318" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
       <c r="I318" s="6"/>
     </row>
-    <row r="319" s="1" customFormat="1" spans="5:9">
+    <row r="319" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
       <c r="H319" s="6"/>
       <c r="I319" s="6"/>
     </row>
-    <row r="320" s="1" customFormat="1" spans="5:9">
+    <row r="320" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
       <c r="H320" s="6"/>
       <c r="I320" s="6"/>
     </row>
-    <row r="321" s="1" customFormat="1" spans="5:9">
+    <row r="321" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
       <c r="H321" s="6"/>
       <c r="I321" s="6"/>
     </row>
-    <row r="322" s="1" customFormat="1" spans="5:9">
+    <row r="322" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
       <c r="H322" s="6"/>
       <c r="I322" s="6"/>
     </row>
-    <row r="323" s="1" customFormat="1" spans="5:9">
+    <row r="323" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
     </row>
-    <row r="324" s="1" customFormat="1" spans="5:9">
+    <row r="324" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
       <c r="H324" s="6"/>
       <c r="I324" s="6"/>
     </row>
-    <row r="325" s="1" customFormat="1" spans="5:9">
+    <row r="325" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
     </row>
-    <row r="326" s="1" customFormat="1" spans="5:9">
+    <row r="326" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
       <c r="H326" s="6"/>
       <c r="I326" s="6"/>
     </row>
-    <row r="327" s="1" customFormat="1" spans="5:9">
+    <row r="327" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
       <c r="H327" s="6"/>
       <c r="I327" s="6"/>
     </row>
-    <row r="328" s="1" customFormat="1" spans="5:9">
+    <row r="328" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
       <c r="H328" s="6"/>
       <c r="I328" s="6"/>
     </row>
-    <row r="329" s="1" customFormat="1" spans="5:9">
+    <row r="329" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
       <c r="H329" s="6"/>
       <c r="I329" s="6"/>
     </row>
-    <row r="330" s="1" customFormat="1" spans="5:9">
+    <row r="330" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
       <c r="H330" s="6"/>
       <c r="I330" s="6"/>
     </row>
-    <row r="331" s="1" customFormat="1" spans="5:9">
+    <row r="331" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
       <c r="H331" s="6"/>
       <c r="I331" s="6"/>
     </row>
-    <row r="332" s="1" customFormat="1" spans="5:9">
+    <row r="332" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
       <c r="H332" s="6"/>
       <c r="I332" s="6"/>
     </row>
-    <row r="333" s="1" customFormat="1" spans="5:9">
+    <row r="333" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
       <c r="H333" s="6"/>
       <c r="I333" s="6"/>
     </row>
-    <row r="334" s="1" customFormat="1" spans="5:9">
+    <row r="334" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
       <c r="H334" s="6"/>
       <c r="I334" s="6"/>
     </row>
-    <row r="335" s="1" customFormat="1" spans="5:9">
+    <row r="335" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
       <c r="I335" s="6"/>
     </row>
-    <row r="336" s="1" customFormat="1" spans="5:9">
+    <row r="336" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
     </row>
-    <row r="337" s="1" customFormat="1" spans="5:9">
+    <row r="337" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
       <c r="H337" s="6"/>
       <c r="I337" s="6"/>
     </row>
-    <row r="338" s="1" customFormat="1" spans="5:9">
+    <row r="338" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
       <c r="H338" s="6"/>
       <c r="I338" s="6"/>
     </row>
-    <row r="339" s="1" customFormat="1" spans="5:9">
+    <row r="339" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
       <c r="H339" s="6"/>
       <c r="I339" s="6"/>
     </row>
-    <row r="340" s="1" customFormat="1" spans="5:9">
+    <row r="340" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
       <c r="H340" s="6"/>
       <c r="I340" s="6"/>
     </row>
-    <row r="341" s="1" customFormat="1" spans="5:9">
+    <row r="341" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
     </row>
-    <row r="342" s="1" customFormat="1" spans="5:9">
+    <row r="342" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
       <c r="H342" s="6"/>
       <c r="I342" s="6"/>
     </row>
-    <row r="343" s="1" customFormat="1" spans="5:9">
+    <row r="343" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
       <c r="H343" s="6"/>
       <c r="I343" s="6"/>
     </row>
-    <row r="344" s="1" customFormat="1" spans="5:9">
+    <row r="344" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E344" s="6"/>
       <c r="H344" s="6"/>
       <c r="I344" s="6"/>
     </row>
-    <row r="345" s="1" customFormat="1" spans="5:9">
+    <row r="345" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
       <c r="H345" s="6"/>
       <c r="I345" s="6"/>
     </row>
-    <row r="346" s="1" customFormat="1" spans="5:9">
+    <row r="346" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
       <c r="H346" s="6"/>
       <c r="I346" s="6"/>
     </row>
-    <row r="347" s="1" customFormat="1" spans="5:9">
+    <row r="347" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
       <c r="H347" s="6"/>
       <c r="I347" s="6"/>
     </row>
-    <row r="348" s="1" customFormat="1" spans="5:9">
+    <row r="348" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
       <c r="H348" s="6"/>
       <c r="I348" s="6"/>
     </row>
-    <row r="349" s="1" customFormat="1" spans="5:9">
+    <row r="349" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
       <c r="H349" s="6"/>
       <c r="I349" s="6"/>
     </row>
-    <row r="350" s="1" customFormat="1" spans="5:9">
+    <row r="350" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
       <c r="H350" s="6"/>
       <c r="I350" s="6"/>
     </row>
-    <row r="351" s="1" customFormat="1" spans="5:9">
+    <row r="351" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
       <c r="H351" s="6"/>
       <c r="I351" s="6"/>
     </row>
-    <row r="352" s="1" customFormat="1" spans="5:9">
+    <row r="352" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
       <c r="H352" s="6"/>
       <c r="I352" s="6"/>
     </row>
-    <row r="353" s="1" customFormat="1" spans="5:9">
+    <row r="353" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
       <c r="I353" s="6"/>
     </row>
-    <row r="354" s="1" customFormat="1" spans="5:9">
+    <row r="354" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
       <c r="G354" s="6"/>
       <c r="H354" s="6"/>
       <c r="I354" s="6"/>
     </row>
-    <row r="355" s="1" customFormat="1" spans="5:9">
+    <row r="355" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
       <c r="H355" s="6"/>
       <c r="I355" s="6"/>
     </row>
-    <row r="356" s="1" customFormat="1" spans="5:9">
+    <row r="356" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
       <c r="I356" s="6"/>
     </row>
-    <row r="357" s="1" customFormat="1" spans="5:9">
+    <row r="357" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
       <c r="H357" s="6"/>
       <c r="I357" s="6"/>
     </row>
-    <row r="358" s="1" customFormat="1" spans="5:9">
+    <row r="358" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
       <c r="H358" s="6"/>
       <c r="I358" s="6"/>
     </row>
-    <row r="359" s="1" customFormat="1" spans="5:9">
+    <row r="359" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
       <c r="H359" s="6"/>
       <c r="I359" s="6"/>
     </row>
-    <row r="360" s="1" customFormat="1" spans="5:9">
+    <row r="360" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
       <c r="H360" s="6"/>
       <c r="I360" s="6"/>
     </row>
-    <row r="361" s="1" customFormat="1" spans="5:9">
+    <row r="361" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
       <c r="H361" s="6"/>
       <c r="I361" s="6"/>
     </row>
-    <row r="362" s="1" customFormat="1" spans="5:9">
+    <row r="362" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
       <c r="H362" s="6"/>
       <c r="I362" s="6"/>
     </row>
-    <row r="363" s="1" customFormat="1" spans="5:9">
+    <row r="363" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
       <c r="I363" s="6"/>
     </row>
-    <row r="364" s="1" customFormat="1" spans="5:9">
+    <row r="364" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
       <c r="H364" s="6"/>
       <c r="I364" s="6"/>
     </row>
-    <row r="365" s="1" customFormat="1" spans="5:9">
+    <row r="365" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
       <c r="H365" s="6"/>
       <c r="I365" s="6"/>
     </row>
-    <row r="366" s="1" customFormat="1" spans="5:9">
+    <row r="366" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
       <c r="H366" s="6"/>
       <c r="I366" s="6"/>
     </row>
-    <row r="367" s="1" customFormat="1" spans="5:8">
+    <row r="367" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
     </row>
-    <row r="368" s="1" customFormat="1" ht="16.5" spans="5:9">
+    <row r="368" spans="5:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E368" s="6"/>
       <c r="H368" s="13"/>
       <c r="I368" s="6"/>
     </row>
-    <row r="369" s="1" customFormat="1" spans="6:8">
+    <row r="369" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
       <c r="H369" s="6"/>
     </row>
-    <row r="370" s="1" customFormat="1"/>
-    <row r="371" s="1" customFormat="1" spans="8:9">
+    <row r="370" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H371" s="6"/>
       <c r="I371" s="6"/>
     </row>
-    <row r="372" s="1" customFormat="1" spans="6:15">
+    <row r="372" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
       <c r="O372" s="6"/>
     </row>
-    <row r="373" s="1" customFormat="1" spans="6:8">
+    <row r="373" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
     </row>
-    <row r="374" s="1" customFormat="1" spans="6:7">
+    <row r="374" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" s="1" customFormat="1" spans="6:7">
+    <row r="375" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
     </row>
-    <row r="376" s="1" customFormat="1" spans="6:7">
+    <row r="376" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
     </row>
-    <row r="377" s="1" customFormat="1" spans="6:7">
+    <row r="377" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
     </row>
-    <row r="378" s="1" customFormat="1" spans="5:9">
+    <row r="378" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
       <c r="G378" s="6"/>
       <c r="H378" s="6"/>
       <c r="I378" s="6"/>
     </row>
-    <row r="379" s="1" customFormat="1" spans="5:9">
+    <row r="379" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
       <c r="H379" s="6"/>
       <c r="I379" s="6"/>
     </row>
-    <row r="380" s="1" customFormat="1" spans="5:9">
+    <row r="380" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
       <c r="H380" s="6"/>
       <c r="I380" s="6"/>
     </row>
-    <row r="381" s="1" customFormat="1" spans="5:9">
+    <row r="381" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
       <c r="H381" s="6"/>
       <c r="I381" s="6"/>
     </row>
-    <row r="382" s="1" customFormat="1" spans="5:9">
+    <row r="382" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
       <c r="H382" s="6"/>
       <c r="I382" s="6"/>
     </row>
-    <row r="383" s="1" customFormat="1" spans="5:9">
+    <row r="383" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
       <c r="I383" s="6"/>
     </row>
-    <row r="384" s="1" customFormat="1" spans="5:9">
+    <row r="384" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
       <c r="H384" s="6"/>
       <c r="I384" s="6"/>
     </row>
-    <row r="385" s="1" customFormat="1" spans="5:8">
+    <row r="385" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
     </row>
-    <row r="386" s="1" customFormat="1" ht="13.5" customHeight="1" spans="5:9">
+    <row r="386" spans="5:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
       <c r="G386" s="6"/>
       <c r="H386" s="6"/>
       <c r="I386" s="6"/>
     </row>
-    <row r="387" s="1" customFormat="1" ht="13.5" customHeight="1" spans="5:9">
+    <row r="387" spans="5:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
       <c r="H387" s="6"/>
       <c r="I387" s="6"/>
     </row>
-    <row r="388" s="1" customFormat="1" ht="13.5" customHeight="1" spans="5:9">
+    <row r="388" spans="5:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
       <c r="H388" s="6"/>
       <c r="I388" s="6"/>
     </row>
-    <row r="389" s="1" customFormat="1" ht="13.5" customHeight="1" spans="5:9">
+    <row r="389" spans="5:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
       <c r="H389" s="13"/>
       <c r="I389" s="6"/>
     </row>
-    <row r="390" s="1" customFormat="1" ht="13.5" customHeight="1" spans="5:9">
+    <row r="390" spans="5:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
       <c r="G390" s="6"/>
       <c r="H390" s="13"/>
       <c r="I390" s="6"/>
     </row>
-    <row r="391" s="1" customFormat="1" ht="16.5" spans="5:9">
+    <row r="391" spans="5:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
       <c r="H391" s="13"/>
       <c r="I391" s="6"/>
     </row>
-    <row r="392" s="1" customFormat="1" ht="16.5" spans="5:9">
+    <row r="392" spans="5:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
       <c r="G392" s="6"/>
       <c r="H392" s="13"/>
       <c r="I392" s="6"/>
     </row>
-    <row r="393" s="1" customFormat="1" ht="16.5" spans="5:9">
+    <row r="393" spans="5:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
       <c r="H393" s="13"/>
       <c r="I393" s="6"/>
     </row>
-    <row r="394" s="1" customFormat="1" ht="16.5" spans="5:9">
+    <row r="394" spans="5:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
       <c r="H394" s="13"/>
       <c r="I394" s="6"/>
     </row>
-    <row r="395" s="1" customFormat="1" ht="16.5" spans="5:9">
+    <row r="395" spans="5:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
       <c r="H395" s="13"/>
       <c r="I395" s="6"/>
     </row>
-    <row r="396" s="1" customFormat="1" ht="16.5" spans="5:9">
+    <row r="396" spans="5:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
       <c r="G396" s="6"/>
       <c r="H396" s="13"/>
       <c r="I396" s="6"/>
     </row>
-    <row r="397" s="1" customFormat="1" ht="16.5" spans="5:9">
+    <row r="397" spans="5:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" s="6"/>
       <c r="H397" s="13"/>
       <c r="I397" s="6"/>
     </row>
-    <row r="398" s="1" customFormat="1" spans="5:9">
+    <row r="398" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
       <c r="G398" s="6"/>
       <c r="H398" s="6"/>
       <c r="I398" s="6"/>
     </row>
-    <row r="399" s="1" customFormat="1" spans="5:9">
+    <row r="399" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" s="6"/>
       <c r="H399" s="6"/>
       <c r="I399" s="6"/>
     </row>
-    <row r="400" s="1" customFormat="1" spans="5:9">
+    <row r="400" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
       <c r="G400" s="6"/>
       <c r="H400" s="6"/>
       <c r="I400" s="6"/>
     </row>
-    <row r="401" s="1" customFormat="1" spans="5:9">
+    <row r="401" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
       <c r="G401" s="6"/>
       <c r="H401" s="6"/>
       <c r="I401" s="6"/>
     </row>
-    <row r="402" s="1" customFormat="1" spans="5:9">
+    <row r="402" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
       <c r="G402" s="6"/>
       <c r="H402" s="6"/>
       <c r="I402" s="6"/>
     </row>
-    <row r="403" s="1" customFormat="1" spans="5:9">
+    <row r="403" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" s="6"/>
       <c r="H403" s="6"/>
       <c r="I403" s="6"/>
     </row>
-    <row r="404" s="1" customFormat="1" spans="5:9">
+    <row r="404" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
       <c r="G404" s="6"/>
       <c r="H404" s="6"/>
       <c r="I404" s="6"/>
     </row>
-    <row r="405" s="1" customFormat="1" spans="5:9">
+    <row r="405" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
       <c r="H405" s="6"/>
       <c r="I405" s="6"/>
     </row>
-    <row r="406" s="1" customFormat="1" spans="5:9">
+    <row r="406" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
       <c r="G406" s="6"/>
       <c r="H406" s="6"/>
       <c r="I406" s="6"/>
     </row>
-    <row r="407" s="1" customFormat="1" ht="15" customHeight="1" spans="5:9">
+    <row r="407" spans="5:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
       <c r="H407" s="6"/>
       <c r="I407" s="6"/>
     </row>
-    <row r="408" s="1" customFormat="1" spans="5:9">
+    <row r="408" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
       <c r="G408" s="6"/>
       <c r="H408" s="6"/>
       <c r="I408" s="6"/>
     </row>
-    <row r="409" s="1" customFormat="1" spans="6:9">
+    <row r="409" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
       <c r="I409" s="6"/>
     </row>
-    <row r="410" s="1" customFormat="1" spans="5:9">
+    <row r="410" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E410" s="6"/>
       <c r="H410" s="6"/>
       <c r="I410" s="6"/>
     </row>
-    <row r="411" s="1" customFormat="1" spans="6:8">
+    <row r="411" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
       <c r="H411" s="6"/>
     </row>
-    <row r="412" s="1" customFormat="1" spans="6:9">
+    <row r="412" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F412" s="6"/>
       <c r="G412" s="6"/>
       <c r="H412" s="6"/>
       <c r="I412" s="6"/>
     </row>
-    <row r="413" s="1" customFormat="1" spans="5:9">
+    <row r="413" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" s="6"/>
       <c r="H413" s="6"/>
       <c r="I413" s="6"/>
     </row>
-    <row r="414" s="1" customFormat="1" spans="5:9">
+    <row r="414" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
       <c r="G414" s="6"/>
       <c r="H414" s="6"/>
       <c r="I414" s="6"/>
     </row>
-    <row r="415" s="1" customFormat="1" spans="5:9">
+    <row r="415" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
       <c r="H415" s="6"/>
       <c r="I415" s="6"/>
     </row>
-    <row r="416" s="1" customFormat="1" spans="5:9">
+    <row r="416" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
       <c r="G416" s="6"/>
       <c r="H416" s="6"/>
       <c r="I416" s="6"/>
     </row>
-    <row r="417" s="1" customFormat="1" spans="5:9">
+    <row r="417" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="6"/>
       <c r="H417" s="6"/>
       <c r="I417" s="6"/>
     </row>
-    <row r="418" s="1" customFormat="1" spans="5:15">
+    <row r="418" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
       <c r="G418" s="6"/>
@@ -3972,368 +3416,368 @@
       <c r="I418" s="6"/>
       <c r="O418" s="6"/>
     </row>
-    <row r="419" s="1" customFormat="1" spans="5:9">
+    <row r="419" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E419" s="6"/>
       <c r="H419" s="6"/>
       <c r="I419" s="6"/>
     </row>
-    <row r="420" s="1" customFormat="1"/>
-    <row r="421" s="1" customFormat="1" spans="5:9">
+    <row r="420" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E421" s="6"/>
       <c r="H421" s="6"/>
       <c r="I421" s="6"/>
     </row>
-    <row r="422" s="1" customFormat="1" spans="8:9">
+    <row r="422" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H422" s="6"/>
       <c r="I422" s="6"/>
     </row>
-    <row r="423" s="1" customFormat="1" spans="8:9">
+    <row r="423" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H423" s="6"/>
       <c r="I423" s="6"/>
     </row>
-    <row r="424" s="1" customFormat="1" spans="8:9">
+    <row r="424" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H424" s="6"/>
       <c r="I424" s="6"/>
     </row>
-    <row r="425" s="1" customFormat="1" spans="6:9">
+    <row r="425" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
       <c r="H425" s="6"/>
       <c r="I425" s="6"/>
     </row>
-    <row r="426" s="1" customFormat="1" spans="6:9">
+    <row r="426" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F426" s="6"/>
       <c r="G426" s="6"/>
       <c r="H426" s="6"/>
       <c r="I426" s="6"/>
     </row>
-    <row r="427" s="1" customFormat="1" spans="8:9">
+    <row r="427" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H427" s="6"/>
       <c r="I427" s="6"/>
     </row>
-    <row r="428" s="1" customFormat="1" spans="8:9">
+    <row r="428" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H428" s="6"/>
       <c r="I428" s="6"/>
     </row>
-    <row r="429" s="1" customFormat="1" spans="5:9">
+    <row r="429" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
       <c r="G429" s="6"/>
       <c r="H429" s="6"/>
       <c r="I429" s="6"/>
     </row>
-    <row r="430" s="1" customFormat="1" spans="6:9">
+    <row r="430" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F430" s="6"/>
       <c r="G430" s="6"/>
       <c r="H430" s="6"/>
       <c r="I430" s="6"/>
     </row>
-    <row r="431" s="1" customFormat="1" spans="6:9">
+    <row r="431" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F431" s="6"/>
       <c r="G431" s="6"/>
       <c r="H431" s="6"/>
       <c r="I431" s="6"/>
     </row>
-    <row r="432" s="1" customFormat="1" spans="6:9">
+    <row r="432" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
       <c r="H432" s="6"/>
       <c r="I432" s="6"/>
     </row>
-    <row r="433" s="1" customFormat="1" spans="6:9">
+    <row r="433" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F433" s="6"/>
       <c r="G433" s="6"/>
       <c r="H433" s="6"/>
       <c r="I433" s="6"/>
     </row>
-    <row r="434" s="1" customFormat="1" spans="6:9">
+    <row r="434" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F434" s="6"/>
       <c r="G434" s="6"/>
       <c r="H434" s="6"/>
       <c r="I434" s="6"/>
     </row>
-    <row r="435" s="1" customFormat="1" spans="6:9">
+    <row r="435" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F435" s="6"/>
       <c r="G435" s="6"/>
       <c r="H435" s="6"/>
       <c r="I435" s="6"/>
     </row>
-    <row r="436" s="1" customFormat="1" spans="5:9">
+    <row r="436" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
       <c r="G436" s="6"/>
       <c r="H436" s="6"/>
       <c r="I436" s="6"/>
     </row>
-    <row r="437" s="1" customFormat="1" spans="6:9">
+    <row r="437" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F437" s="6"/>
       <c r="G437" s="6"/>
       <c r="H437" s="6"/>
       <c r="I437" s="6"/>
     </row>
-    <row r="438" s="1" customFormat="1" spans="5:9">
+    <row r="438" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
       <c r="G438" s="6"/>
       <c r="H438" s="6"/>
       <c r="I438" s="6"/>
     </row>
-    <row r="439" s="1" customFormat="1" spans="5:9">
+    <row r="439" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
       <c r="G439" s="6"/>
       <c r="H439" s="6"/>
       <c r="I439" s="6"/>
     </row>
-    <row r="440" s="1" customFormat="1" spans="5:9">
+    <row r="440" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E440" s="6"/>
       <c r="H440" s="6"/>
       <c r="I440" s="6"/>
     </row>
-    <row r="441" s="1" customFormat="1" spans="5:9">
+    <row r="441" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E441" s="6"/>
       <c r="H441" s="6"/>
       <c r="I441" s="6"/>
     </row>
-    <row r="442" s="1" customFormat="1" spans="5:9">
+    <row r="442" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
       <c r="H442" s="6"/>
       <c r="I442" s="6"/>
     </row>
-    <row r="443" s="1" customFormat="1" spans="5:5">
+    <row r="443" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E443" s="6"/>
     </row>
-    <row r="444" s="1" customFormat="1" spans="5:9">
+    <row r="444" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
       <c r="G444" s="6"/>
       <c r="I444" s="6"/>
     </row>
-    <row r="445" s="1" customFormat="1" spans="5:9">
+    <row r="445" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
       <c r="G445" s="6"/>
       <c r="H445" s="6"/>
       <c r="I445" s="6"/>
     </row>
-    <row r="446" s="1" customFormat="1" spans="5:9">
+    <row r="446" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
       <c r="H446" s="6"/>
       <c r="I446" s="6"/>
     </row>
-    <row r="447" s="1" customFormat="1" spans="5:9">
+    <row r="447" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
       <c r="G447" s="6"/>
       <c r="H447" s="6"/>
       <c r="I447" s="6"/>
     </row>
-    <row r="448" s="1" customFormat="1" spans="5:9">
+    <row r="448" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
       <c r="G448" s="6"/>
       <c r="H448" s="6"/>
       <c r="I448" s="6"/>
     </row>
-    <row r="449" s="1" customFormat="1" spans="5:9">
+    <row r="449" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
       <c r="G449" s="6"/>
       <c r="H449" s="6"/>
       <c r="I449" s="6"/>
     </row>
-    <row r="450" s="1" customFormat="1" spans="6:9">
+    <row r="450" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F450" s="6"/>
       <c r="G450" s="6"/>
       <c r="H450" s="6"/>
       <c r="I450" s="6"/>
     </row>
-    <row r="451" s="1" customFormat="1" spans="6:9">
+    <row r="451" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
       <c r="H451" s="6"/>
       <c r="I451" s="6"/>
     </row>
-    <row r="452" s="1" customFormat="1" spans="6:9">
+    <row r="452" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F452" s="6"/>
       <c r="G452" s="6"/>
       <c r="H452" s="6"/>
       <c r="I452" s="6"/>
     </row>
-    <row r="453" s="1" customFormat="1" spans="6:9">
+    <row r="453" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F453" s="6"/>
       <c r="G453" s="6"/>
       <c r="H453" s="6"/>
       <c r="I453" s="6"/>
     </row>
-    <row r="454" s="1" customFormat="1" spans="6:9">
+    <row r="454" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F454" s="6"/>
       <c r="G454" s="6"/>
       <c r="H454" s="6"/>
       <c r="I454" s="6"/>
     </row>
-    <row r="455" s="1" customFormat="1" spans="6:9">
+    <row r="455" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F455" s="6"/>
       <c r="G455" s="6"/>
       <c r="H455" s="6"/>
       <c r="I455" s="6"/>
     </row>
-    <row r="456" s="1" customFormat="1" spans="6:9">
+    <row r="456" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F456" s="6"/>
       <c r="G456" s="6"/>
       <c r="H456" s="6"/>
       <c r="I456" s="6"/>
     </row>
-    <row r="457" s="1" customFormat="1" spans="6:9">
+    <row r="457" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
       <c r="H457" s="6"/>
       <c r="I457" s="6"/>
     </row>
-    <row r="458" s="1" customFormat="1" spans="6:9">
+    <row r="458" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F458" s="6"/>
       <c r="G458" s="6"/>
       <c r="H458" s="6"/>
       <c r="I458" s="6"/>
     </row>
-    <row r="459" s="1" customFormat="1" spans="8:9">
+    <row r="459" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H459" s="6"/>
       <c r="I459" s="6"/>
     </row>
-    <row r="460" s="1" customFormat="1" spans="8:9">
+    <row r="460" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H460" s="6"/>
       <c r="I460" s="6"/>
     </row>
-    <row r="461" s="1" customFormat="1" spans="8:9">
+    <row r="461" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H461" s="6"/>
       <c r="I461" s="6"/>
     </row>
-    <row r="462" s="1" customFormat="1" spans="8:9">
+    <row r="462" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H462" s="6"/>
       <c r="I462" s="6"/>
     </row>
-    <row r="463" s="1" customFormat="1" spans="6:9">
+    <row r="463" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F463" s="14"/>
       <c r="G463" s="14"/>
       <c r="H463" s="6"/>
       <c r="I463" s="6"/>
     </row>
-    <row r="464" s="1" customFormat="1" spans="5:9">
+    <row r="464" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
       <c r="G464" s="6"/>
       <c r="H464" s="6"/>
       <c r="I464" s="6"/>
     </row>
-    <row r="465" s="1" customFormat="1" spans="5:9">
+    <row r="465" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
       <c r="G465" s="6"/>
       <c r="H465" s="6"/>
       <c r="I465" s="6"/>
     </row>
-    <row r="466" s="1" customFormat="1" spans="5:9">
+    <row r="466" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
       <c r="G466" s="6"/>
       <c r="H466" s="6"/>
       <c r="I466" s="6"/>
     </row>
-    <row r="467" s="1" customFormat="1" spans="5:9">
+    <row r="467" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
       <c r="H467" s="6"/>
       <c r="I467" s="6"/>
     </row>
-    <row r="468" s="1" customFormat="1" spans="5:9">
+    <row r="468" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
       <c r="H468" s="6"/>
       <c r="I468" s="6"/>
     </row>
-    <row r="469" s="1" customFormat="1" spans="5:9">
+    <row r="469" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
       <c r="H469" s="6"/>
       <c r="I469" s="6"/>
     </row>
-    <row r="470" s="1" customFormat="1" spans="5:9">
+    <row r="470" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
       <c r="G470" s="6"/>
       <c r="H470" s="6"/>
       <c r="I470" s="6"/>
     </row>
-    <row r="471" s="1" customFormat="1" spans="5:9">
+    <row r="471" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
       <c r="G471" s="6"/>
       <c r="H471" s="6"/>
       <c r="I471" s="6"/>
     </row>
-    <row r="472" s="1" customFormat="1" spans="5:9">
+    <row r="472" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
       <c r="G472" s="6"/>
       <c r="H472" s="6"/>
       <c r="I472" s="6"/>
     </row>
-    <row r="473" s="1" customFormat="1" spans="5:9">
+    <row r="473" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E473" s="6"/>
       <c r="H473" s="6"/>
       <c r="I473" s="6"/>
     </row>
-    <row r="474" s="1" customFormat="1" spans="5:9">
+    <row r="474" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E474" s="6"/>
       <c r="H474" s="6"/>
       <c r="I474" s="6"/>
     </row>
-    <row r="475" s="1" customFormat="1" spans="5:9">
+    <row r="475" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E475" s="6"/>
       <c r="H475" s="6"/>
       <c r="I475" s="6"/>
     </row>
-    <row r="476" s="1" customFormat="1" spans="5:9">
+    <row r="476" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E476" s="6"/>
       <c r="H476" s="6"/>
       <c r="I476" s="6"/>
     </row>
-    <row r="477" s="1" customFormat="1" spans="5:9">
+    <row r="477" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E477" s="6"/>
       <c r="F477" s="15"/>
       <c r="G477" s="15"/>
       <c r="H477" s="6"/>
       <c r="I477" s="6"/>
     </row>
-    <row r="478" s="1" customFormat="1" spans="5:9">
+    <row r="478" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
       <c r="G478" s="6"/>
       <c r="H478" s="6"/>
       <c r="I478" s="6"/>
     </row>
-    <row r="479" s="1" customFormat="1" spans="5:9">
+    <row r="479" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
       <c r="G479" s="6"/>
       <c r="H479" s="6"/>
       <c r="I479" s="6"/>
     </row>
-    <row r="480" s="1" customFormat="1" spans="5:9">
+    <row r="480" spans="5:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
       <c r="G480" s="6"/>
       <c r="H480" s="6"/>
       <c r="I480" s="6"/>
     </row>
-    <row r="481" s="1" customFormat="1" spans="5:15">
+    <row r="481" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
@@ -4341,79 +3785,79 @@
       <c r="I481" s="6"/>
       <c r="O481" s="6"/>
     </row>
-    <row r="482" s="1" customFormat="1" spans="8:9">
+    <row r="482" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H482" s="6"/>
       <c r="I482" s="6"/>
     </row>
-    <row r="483" s="1" customFormat="1" spans="6:15">
+    <row r="483" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F483" s="6"/>
       <c r="G483" s="6"/>
       <c r="H483" s="6"/>
       <c r="I483" s="6"/>
       <c r="O483" s="6"/>
     </row>
-    <row r="484" s="1" customFormat="1" spans="6:9">
+    <row r="484" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F484" s="6"/>
       <c r="G484" s="6"/>
       <c r="H484" s="6"/>
       <c r="I484" s="6"/>
     </row>
-    <row r="485" s="1" customFormat="1" spans="6:15">
+    <row r="485" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F485" s="6"/>
       <c r="G485" s="6"/>
       <c r="H485" s="6"/>
       <c r="I485" s="6"/>
       <c r="O485" s="6"/>
     </row>
-    <row r="486" s="1" customFormat="1" spans="6:9">
+    <row r="486" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F486" s="6"/>
       <c r="G486" s="6"/>
       <c r="H486" s="6"/>
       <c r="I486" s="6"/>
     </row>
-    <row r="487" s="1" customFormat="1" spans="6:15">
+    <row r="487" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F487" s="6"/>
       <c r="G487" s="6"/>
       <c r="H487" s="6"/>
       <c r="I487" s="6"/>
       <c r="O487" s="6"/>
     </row>
-    <row r="488" s="1" customFormat="1" spans="6:9">
+    <row r="488" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
       <c r="H488" s="6"/>
       <c r="I488" s="6"/>
     </row>
-    <row r="489" s="1" customFormat="1" spans="6:15">
+    <row r="489" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F489" s="6"/>
       <c r="G489" s="6"/>
       <c r="H489" s="6"/>
       <c r="I489" s="6"/>
       <c r="O489" s="6"/>
     </row>
-    <row r="490" s="1" customFormat="1" spans="6:9">
+    <row r="490" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F490" s="6"/>
       <c r="G490" s="6"/>
       <c r="H490" s="6"/>
       <c r="I490" s="15"/>
     </row>
-    <row r="491" s="1" customFormat="1" ht="42.75" customHeight="1" spans="6:9">
+    <row r="491" spans="5:15" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F491" s="14"/>
       <c r="G491" s="14"/>
       <c r="H491" s="6"/>
       <c r="I491" s="6"/>
     </row>
-    <row r="492" s="1" customFormat="1" ht="42.75" customHeight="1" spans="6:9">
+    <row r="492" spans="5:15" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F492" s="14"/>
       <c r="G492" s="14"/>
       <c r="H492" s="6"/>
       <c r="I492" s="6"/>
     </row>
-    <row r="493" s="1" customFormat="1" spans="8:9">
+    <row r="493" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H493" s="6"/>
       <c r="I493" s="6"/>
     </row>
-    <row r="494" s="1" customFormat="1" spans="5:14">
+    <row r="494" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
       <c r="G494" s="6"/>
@@ -4422,7 +3866,7 @@
       <c r="M494" s="16"/>
       <c r="N494" s="16"/>
     </row>
-    <row r="495" s="1" customFormat="1" spans="5:14">
+    <row r="495" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E495" s="6"/>
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
@@ -4431,7 +3875,7 @@
       <c r="M495" s="16"/>
       <c r="N495" s="16"/>
     </row>
-    <row r="496" s="1" customFormat="1" spans="5:15">
+    <row r="496" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
       <c r="G496" s="6"/>
@@ -4441,49 +3885,49 @@
       <c r="N496" s="16"/>
       <c r="O496" s="6"/>
     </row>
-    <row r="497" s="1" customFormat="1" spans="5:9">
+    <row r="497" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
       <c r="G497" s="6"/>
       <c r="H497" s="6"/>
       <c r="I497" s="6"/>
     </row>
-    <row r="498" s="1" customFormat="1" spans="8:9">
+    <row r="498" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H498" s="6"/>
       <c r="I498" s="6"/>
     </row>
-    <row r="499" s="1" customFormat="1" spans="8:9">
+    <row r="499" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H499" s="6"/>
       <c r="I499" s="6"/>
     </row>
-    <row r="500" s="1" customFormat="1" spans="8:9">
+    <row r="500" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H500" s="6"/>
       <c r="I500" s="6"/>
     </row>
-    <row r="501" s="1" customFormat="1" spans="8:9">
+    <row r="501" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H501" s="6"/>
       <c r="I501" s="6"/>
     </row>
-    <row r="502" s="1" customFormat="1" spans="6:9">
+    <row r="502" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F502" s="6"/>
       <c r="G502" s="6"/>
       <c r="H502" s="6"/>
       <c r="I502" s="6"/>
     </row>
-    <row r="503" s="1" customFormat="1" spans="6:9">
+    <row r="503" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F503" s="6"/>
       <c r="G503" s="6"/>
       <c r="H503" s="6"/>
       <c r="I503" s="6"/>
     </row>
-    <row r="504" s="1" customFormat="1" spans="5:9">
+    <row r="504" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
       <c r="G504" s="6"/>
       <c r="H504" s="6"/>
       <c r="I504" s="6"/>
     </row>
-    <row r="505" s="1" customFormat="1" spans="5:15">
+    <row r="505" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E505" s="6"/>
       <c r="F505" s="6"/>
       <c r="G505" s="6"/>
@@ -4491,7 +3935,7 @@
       <c r="I505" s="6"/>
       <c r="O505" s="6"/>
     </row>
-    <row r="506" s="1" customFormat="1" spans="5:15">
+    <row r="506" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
       <c r="G506" s="6"/>
@@ -4499,7 +3943,7 @@
       <c r="I506" s="6"/>
       <c r="O506" s="6"/>
     </row>
-    <row r="507" s="1" customFormat="1" spans="5:15">
+    <row r="507" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
@@ -4507,7 +3951,7 @@
       <c r="I507" s="6"/>
       <c r="O507" s="6"/>
     </row>
-    <row r="508" s="1" customFormat="1" spans="5:15">
+    <row r="508" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
@@ -4515,7 +3959,7 @@
       <c r="I508" s="6"/>
       <c r="O508" s="6"/>
     </row>
-    <row r="509" s="1" customFormat="1" spans="5:15">
+    <row r="509" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
       <c r="G509" s="6"/>
@@ -4523,7 +3967,7 @@
       <c r="I509" s="6"/>
       <c r="O509" s="6"/>
     </row>
-    <row r="510" s="1" customFormat="1" spans="5:15">
+    <row r="510" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
       <c r="G510" s="6"/>
@@ -4531,7 +3975,7 @@
       <c r="I510" s="6"/>
       <c r="O510" s="6"/>
     </row>
-    <row r="511" s="1" customFormat="1" spans="5:15">
+    <row r="511" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
       <c r="G511" s="6"/>
@@ -4539,98 +3983,98 @@
       <c r="I511" s="6"/>
       <c r="O511" s="6"/>
     </row>
-    <row r="512" s="1" customFormat="1" spans="5:9">
+    <row r="512" spans="5:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
       <c r="G512" s="6"/>
       <c r="H512" s="6"/>
       <c r="I512" s="6"/>
     </row>
-    <row r="513" s="1" customFormat="1" spans="5:9">
+    <row r="513" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
       <c r="H513" s="6"/>
       <c r="I513" s="6"/>
     </row>
-    <row r="514" s="1" customFormat="1" spans="5:9">
+    <row r="514" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
       <c r="G514" s="6"/>
       <c r="H514" s="6"/>
       <c r="I514" s="6"/>
     </row>
-    <row r="515" s="1" customFormat="1" spans="5:9">
+    <row r="515" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
       <c r="G515" s="6"/>
       <c r="H515" s="6"/>
       <c r="I515" s="6"/>
     </row>
-    <row r="516" s="1" customFormat="1" spans="5:9">
+    <row r="516" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
       <c r="G516" s="6"/>
       <c r="H516" s="6"/>
       <c r="I516" s="6"/>
     </row>
-    <row r="517" s="1" customFormat="1" spans="5:9">
+    <row r="517" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E517" s="6"/>
       <c r="F517" s="6"/>
       <c r="G517" s="6"/>
       <c r="H517" s="6"/>
       <c r="I517" s="6"/>
     </row>
-    <row r="518" s="1" customFormat="1" spans="5:9">
+    <row r="518" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
       <c r="H518" s="6"/>
       <c r="I518" s="6"/>
     </row>
-    <row r="519" s="1" customFormat="1" spans="5:9">
+    <row r="519" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
       <c r="G519" s="6"/>
       <c r="H519" s="6"/>
       <c r="I519" s="6"/>
     </row>
-    <row r="520" s="1" customFormat="1" spans="5:9">
+    <row r="520" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
       <c r="H520" s="6"/>
       <c r="I520" s="6"/>
     </row>
-    <row r="521" s="1" customFormat="1" spans="5:9">
+    <row r="521" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
       <c r="G521" s="6"/>
       <c r="H521" s="6"/>
       <c r="I521" s="6"/>
     </row>
-    <row r="522" s="1" customFormat="1" spans="5:9">
+    <row r="522" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
       <c r="G522" s="6"/>
       <c r="H522" s="6"/>
       <c r="I522" s="6"/>
     </row>
-    <row r="523" s="1" customFormat="1" spans="5:9">
+    <row r="523" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
       <c r="G523" s="6"/>
       <c r="H523" s="6"/>
       <c r="I523" s="6"/>
     </row>
-    <row r="524" s="1" customFormat="1" spans="5:9">
+    <row r="524" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
       <c r="G524" s="6"/>
       <c r="H524" s="6"/>
       <c r="I524" s="6"/>
     </row>
-    <row r="525" s="1" customFormat="1" spans="1:15">
+    <row r="525" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -4647,7 +4091,7 @@
       <c r="N525" s="6"/>
       <c r="O525" s="6"/>
     </row>
-    <row r="526" s="1" customFormat="1" spans="1:15">
+    <row r="526" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -4664,7 +4108,7 @@
       <c r="N526" s="6"/>
       <c r="O526" s="6"/>
     </row>
-    <row r="527" s="1" customFormat="1" spans="1:15">
+    <row r="527" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -4681,7 +4125,7 @@
       <c r="N527" s="6"/>
       <c r="O527" s="6"/>
     </row>
-    <row r="528" s="1" customFormat="1" spans="1:15">
+    <row r="528" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -4698,7 +4142,7 @@
       <c r="N528" s="6"/>
       <c r="O528" s="6"/>
     </row>
-    <row r="529" s="1" customFormat="1" spans="1:15">
+    <row r="529" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -4715,7 +4159,7 @@
       <c r="N529" s="6"/>
       <c r="O529" s="6"/>
     </row>
-    <row r="530" s="1" customFormat="1" spans="1:15">
+    <row r="530" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -4732,7 +4176,7 @@
       <c r="N530" s="6"/>
       <c r="O530" s="6"/>
     </row>
-    <row r="531" s="1" customFormat="1" spans="1:15">
+    <row r="531" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -4749,7 +4193,7 @@
       <c r="N531" s="6"/>
       <c r="O531" s="6"/>
     </row>
-    <row r="532" s="1" customFormat="1" spans="1:15">
+    <row r="532" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -4766,7 +4210,7 @@
       <c r="N532" s="6"/>
       <c r="O532" s="6"/>
     </row>
-    <row r="533" s="1" customFormat="1" spans="1:15">
+    <row r="533" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -4783,7 +4227,7 @@
       <c r="N533" s="6"/>
       <c r="O533" s="6"/>
     </row>
-    <row r="534" s="1" customFormat="1" spans="1:15">
+    <row r="534" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -4800,7 +4244,7 @@
       <c r="N534" s="6"/>
       <c r="O534" s="6"/>
     </row>
-    <row r="535" s="1" customFormat="1" spans="1:15">
+    <row r="535" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -4817,7 +4261,7 @@
       <c r="N535" s="6"/>
       <c r="O535" s="6"/>
     </row>
-    <row r="536" s="1" customFormat="1" spans="1:15">
+    <row r="536" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -4834,7 +4278,7 @@
       <c r="N536" s="6"/>
       <c r="O536" s="6"/>
     </row>
-    <row r="537" s="1" customFormat="1" spans="1:15">
+    <row r="537" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -4851,7 +4295,7 @@
       <c r="N537" s="6"/>
       <c r="O537" s="6"/>
     </row>
-    <row r="538" s="1" customFormat="1" spans="1:15">
+    <row r="538" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -4868,7 +4312,7 @@
       <c r="N538" s="6"/>
       <c r="O538" s="6"/>
     </row>
-    <row r="539" s="1" customFormat="1" spans="1:15">
+    <row r="539" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -4885,7 +4329,7 @@
       <c r="N539" s="6"/>
       <c r="O539" s="6"/>
     </row>
-    <row r="540" s="1" customFormat="1" spans="1:15">
+    <row r="540" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -4902,7 +4346,7 @@
       <c r="N540" s="6"/>
       <c r="O540" s="6"/>
     </row>
-    <row r="541" s="1" customFormat="1" spans="1:15">
+    <row r="541" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -4919,7 +4363,7 @@
       <c r="N541" s="6"/>
       <c r="O541" s="6"/>
     </row>
-    <row r="542" s="1" customFormat="1" spans="1:15">
+    <row r="542" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -4936,7 +4380,7 @@
       <c r="N542" s="6"/>
       <c r="O542" s="6"/>
     </row>
-    <row r="543" s="1" customFormat="1" spans="1:15">
+    <row r="543" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -4953,7 +4397,7 @@
       <c r="N543" s="6"/>
       <c r="O543" s="6"/>
     </row>
-    <row r="544" s="1" customFormat="1" spans="1:15">
+    <row r="544" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -4970,7 +4414,7 @@
       <c r="N544" s="6"/>
       <c r="O544" s="6"/>
     </row>
-    <row r="545" s="1" customFormat="1" spans="1:15">
+    <row r="545" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -4987,7 +4431,7 @@
       <c r="N545" s="6"/>
       <c r="O545" s="6"/>
     </row>
-    <row r="546" s="1" customFormat="1" spans="1:15">
+    <row r="546" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
@@ -5004,7 +4448,7 @@
       <c r="N546" s="6"/>
       <c r="O546" s="6"/>
     </row>
-    <row r="547" s="1" customFormat="1" spans="1:15">
+    <row r="547" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
@@ -5021,7 +4465,7 @@
       <c r="N547" s="6"/>
       <c r="O547" s="6"/>
     </row>
-    <row r="548" s="1" customFormat="1" spans="1:15">
+    <row r="548" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
@@ -5038,7 +4482,7 @@
       <c r="N548" s="6"/>
       <c r="O548" s="6"/>
     </row>
-    <row r="549" s="1" customFormat="1" spans="1:15">
+    <row r="549" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="6"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
@@ -5055,7 +4499,7 @@
       <c r="N549" s="6"/>
       <c r="O549" s="6"/>
     </row>
-    <row r="550" s="1" customFormat="1" spans="1:15">
+    <row r="550" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="6"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
@@ -5072,7 +4516,7 @@
       <c r="N550" s="6"/>
       <c r="O550" s="6"/>
     </row>
-    <row r="551" s="1" customFormat="1" spans="1:15">
+    <row r="551" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="6"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
@@ -5089,7 +4533,7 @@
       <c r="N551" s="6"/>
       <c r="O551" s="6"/>
     </row>
-    <row r="552" s="1" customFormat="1" spans="1:15">
+    <row r="552" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="6"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
@@ -5106,7 +4550,7 @@
       <c r="N552" s="6"/>
       <c r="O552" s="6"/>
     </row>
-    <row r="553" s="1" customFormat="1" spans="1:15">
+    <row r="553" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="6"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
@@ -5123,7 +4567,7 @@
       <c r="N553" s="6"/>
       <c r="O553" s="6"/>
     </row>
-    <row r="554" s="1" customFormat="1" spans="1:15">
+    <row r="554" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="6"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
@@ -5138,7 +4582,7 @@
       <c r="N554" s="6"/>
       <c r="O554" s="6"/>
     </row>
-    <row r="555" s="1" customFormat="1" spans="1:10">
+    <row r="555" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="6"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
@@ -5148,7 +4592,7 @@
       <c r="I555" s="6"/>
       <c r="J555" s="6"/>
     </row>
-    <row r="556" s="1" customFormat="1" spans="1:10">
+    <row r="556" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="6"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
@@ -5158,7 +4602,7 @@
       <c r="I556" s="6"/>
       <c r="J556" s="6"/>
     </row>
-    <row r="557" s="1" customFormat="1" spans="1:10">
+    <row r="557" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="6"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
@@ -5168,7 +4612,7 @@
       <c r="I557" s="6"/>
       <c r="J557" s="6"/>
     </row>
-    <row r="558" s="1" customFormat="1" spans="1:10">
+    <row r="558" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="6"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
@@ -5178,7 +4622,7 @@
       <c r="I558" s="6"/>
       <c r="J558" s="6"/>
     </row>
-    <row r="559" s="1" customFormat="1" spans="1:10">
+    <row r="559" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="6"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
@@ -5188,7 +4632,7 @@
       <c r="I559" s="6"/>
       <c r="J559" s="6"/>
     </row>
-    <row r="560" s="1" customFormat="1" spans="1:10">
+    <row r="560" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="6"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
@@ -5198,7 +4642,7 @@
       <c r="I560" s="6"/>
       <c r="J560" s="6"/>
     </row>
-    <row r="561" s="1" customFormat="1" spans="1:10">
+    <row r="561" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="6"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
@@ -5208,7 +4652,7 @@
       <c r="I561" s="6"/>
       <c r="J561" s="6"/>
     </row>
-    <row r="562" s="1" customFormat="1" spans="1:10">
+    <row r="562" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="6"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
@@ -5218,7 +4662,7 @@
       <c r="I562" s="6"/>
       <c r="J562" s="6"/>
     </row>
-    <row r="563" s="1" customFormat="1" spans="1:10">
+    <row r="563" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="6"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
@@ -5228,7 +4672,7 @@
       <c r="I563" s="6"/>
       <c r="J563" s="6"/>
     </row>
-    <row r="564" s="1" customFormat="1" spans="1:10">
+    <row r="564" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="6"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
@@ -5239,7 +4683,7 @@
       <c r="I564" s="6"/>
       <c r="J564" s="6"/>
     </row>
-    <row r="565" s="1" customFormat="1" spans="1:10">
+    <row r="565" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="6"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
@@ -5250,7 +4694,7 @@
       <c r="I565" s="6"/>
       <c r="J565" s="6"/>
     </row>
-    <row r="566" s="1" customFormat="1" spans="1:10">
+    <row r="566" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="6"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
@@ -5261,7 +4705,7 @@
       <c r="I566" s="6"/>
       <c r="J566" s="6"/>
     </row>
-    <row r="567" s="1" customFormat="1" spans="1:10">
+    <row r="567" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="6"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
@@ -5272,7 +4716,7 @@
       <c r="I567" s="6"/>
       <c r="J567" s="6"/>
     </row>
-    <row r="568" s="1" customFormat="1" spans="1:10">
+    <row r="568" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="6"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
@@ -5283,7 +4727,7 @@
       <c r="I568" s="6"/>
       <c r="J568" s="6"/>
     </row>
-    <row r="569" s="1" customFormat="1" spans="1:10">
+    <row r="569" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="6"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
@@ -5294,7 +4738,7 @@
       <c r="I569" s="6"/>
       <c r="J569" s="6"/>
     </row>
-    <row r="570" s="1" customFormat="1" spans="1:10">
+    <row r="570" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="6"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
@@ -5305,7 +4749,7 @@
       <c r="I570" s="6"/>
       <c r="J570" s="6"/>
     </row>
-    <row r="571" s="1" customFormat="1" spans="1:10">
+    <row r="571" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="6"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
@@ -5316,7 +4760,7 @@
       <c r="I571" s="6"/>
       <c r="J571" s="6"/>
     </row>
-    <row r="572" s="1" customFormat="1" spans="1:14">
+    <row r="572" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="6"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
@@ -5329,7 +4773,7 @@
       <c r="M572" s="16"/>
       <c r="N572" s="16"/>
     </row>
-    <row r="573" s="1" customFormat="1" spans="1:14">
+    <row r="573" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="6"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
@@ -5342,7 +4786,7 @@
       <c r="M573" s="16"/>
       <c r="N573" s="16"/>
     </row>
-    <row r="574" s="1" customFormat="1" spans="1:15">
+    <row r="574" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A574" s="6"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
@@ -5356,7 +4800,7 @@
       <c r="N574" s="16"/>
       <c r="O574" s="6"/>
     </row>
-    <row r="575" s="1" customFormat="1" spans="1:15">
+    <row r="575" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="6"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
@@ -5369,7 +4813,7 @@
       <c r="N575" s="16"/>
       <c r="O575" s="6"/>
     </row>
-    <row r="576" s="1" customFormat="1" spans="1:15">
+    <row r="576" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A576" s="6"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
@@ -5382,7 +4826,7 @@
       <c r="N576" s="16"/>
       <c r="O576" s="6"/>
     </row>
-    <row r="577" s="1" customFormat="1" spans="1:15">
+    <row r="577" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="6"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
@@ -5395,7 +4839,7 @@
       <c r="N577" s="16"/>
       <c r="O577" s="6"/>
     </row>
-    <row r="578" s="1" customFormat="1" spans="1:15">
+    <row r="578" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A578" s="6"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
@@ -5409,7 +4853,7 @@
       <c r="N578" s="16"/>
       <c r="O578" s="6"/>
     </row>
-    <row r="579" s="1" customFormat="1" spans="1:10">
+    <row r="579" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="6"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
@@ -5420,14 +4864,14 @@
       <c r="I579" s="6"/>
       <c r="J579" s="6"/>
     </row>
-    <row r="580" s="1" customFormat="1" spans="5:9">
+    <row r="580" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
       <c r="G580" s="6"/>
       <c r="H580" s="6"/>
       <c r="I580" s="6"/>
     </row>
-    <row r="581" s="1" customFormat="1" spans="1:10">
+    <row r="581" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
@@ -5438,19 +4882,19 @@
       <c r="I581" s="6"/>
       <c r="J581" s="6"/>
     </row>
-    <row r="582" s="1" customFormat="1" spans="1:10">
+    <row r="582" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
       <c r="E582" s="6"/>
       <c r="J582" s="6"/>
     </row>
-    <row r="583" s="1" customFormat="1" spans="1:3">
+    <row r="583" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
     </row>
-    <row r="584" s="1" customFormat="1" spans="1:8">
+    <row r="584" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
@@ -5459,19 +4903,19 @@
       <c r="G584" s="6"/>
       <c r="H584" s="6"/>
     </row>
-    <row r="585" s="1" customFormat="1" spans="5:9">
+    <row r="585" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E585" s="6"/>
       <c r="F585" s="6"/>
       <c r="G585" s="6"/>
       <c r="H585" s="6"/>
       <c r="I585" s="6"/>
     </row>
-    <row r="586" s="1" customFormat="1" spans="1:3">
+    <row r="586" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
     </row>
-    <row r="587" s="1" customFormat="1" spans="1:14">
+    <row r="587" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="6"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
@@ -5483,7 +4927,7 @@
       <c r="M587" s="16"/>
       <c r="N587" s="16"/>
     </row>
-    <row r="588" s="1" customFormat="1" spans="5:14">
+    <row r="588" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
       <c r="G588" s="6"/>
@@ -5492,7 +4936,7 @@
       <c r="M588" s="16"/>
       <c r="N588" s="16"/>
     </row>
-    <row r="589" s="1" customFormat="1" spans="1:15">
+    <row r="589" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="6"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
@@ -5505,7 +4949,7 @@
       <c r="N589" s="16"/>
       <c r="O589" s="6"/>
     </row>
-    <row r="590" s="1" customFormat="1" spans="1:14">
+    <row r="590" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A590" s="6"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
@@ -5517,20 +4961,20 @@
       <c r="M590" s="16"/>
       <c r="N590" s="16"/>
     </row>
-    <row r="591" s="1" customFormat="1" spans="5:8">
+    <row r="591" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E591" s="6"/>
       <c r="F591" s="6"/>
       <c r="G591" s="6"/>
       <c r="H591" s="6"/>
     </row>
-    <row r="592" s="1" customFormat="1" spans="5:9">
+    <row r="592" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
       <c r="G592" s="6"/>
       <c r="H592" s="6"/>
       <c r="I592" s="6"/>
     </row>
-    <row r="593" s="1" customFormat="1" spans="1:10">
+    <row r="593" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" s="6"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
@@ -5541,58 +4985,58 @@
       <c r="I593" s="6"/>
       <c r="J593" s="6"/>
     </row>
-    <row r="594" s="1" customFormat="1"/>
-    <row r="595" s="1" customFormat="1" spans="1:9">
+    <row r="594" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" s="6"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
       <c r="H595" s="6"/>
       <c r="I595" s="6"/>
     </row>
-    <row r="596" s="1" customFormat="1" spans="5:9">
+    <row r="596" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
       <c r="G596" s="6"/>
       <c r="H596" s="6"/>
       <c r="I596" s="6"/>
     </row>
-    <row r="597" s="1" customFormat="1" spans="1:3">
+    <row r="597" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" s="6"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
     </row>
-    <row r="598" s="1" customFormat="1" spans="8:9">
+    <row r="598" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H598" s="6"/>
       <c r="I598" s="6"/>
     </row>
-    <row r="599" s="1" customFormat="1" spans="1:8">
+    <row r="599" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" s="6"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
       <c r="H599" s="6"/>
     </row>
-    <row r="600" s="1" customFormat="1" spans="8:9">
+    <row r="600" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H600" s="6"/>
       <c r="I600" s="6"/>
     </row>
-    <row r="601" s="1" customFormat="1" spans="1:8">
+    <row r="601" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" s="6"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
       <c r="H601" s="6"/>
     </row>
-    <row r="602" s="1" customFormat="1" spans="8:9">
+    <row r="602" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H602" s="6"/>
       <c r="I602" s="6"/>
     </row>
-    <row r="603" s="1" customFormat="1" spans="5:9">
+    <row r="603" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E603" s="6"/>
       <c r="F603" s="6"/>
       <c r="G603" s="6"/>
       <c r="H603" s="6"/>
       <c r="I603" s="6"/>
     </row>
-    <row r="604" s="1" customFormat="1" spans="5:14">
+    <row r="604" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
       <c r="G604" s="6"/>
@@ -5601,7 +5045,7 @@
       <c r="M604" s="16"/>
       <c r="N604" s="16"/>
     </row>
-    <row r="605" s="1" customFormat="1" spans="1:14">
+    <row r="605" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="6"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
@@ -5613,7 +5057,7 @@
       <c r="M605" s="16"/>
       <c r="N605" s="16"/>
     </row>
-    <row r="606" s="1" customFormat="1" spans="5:15">
+    <row r="606" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
       <c r="G606" s="6"/>
@@ -5623,7 +5067,7 @@
       <c r="N606" s="16"/>
       <c r="O606" s="6"/>
     </row>
-    <row r="607" s="1" customFormat="1" spans="1:14">
+    <row r="607" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
@@ -5635,14 +5079,14 @@
       <c r="M607" s="16"/>
       <c r="N607" s="16"/>
     </row>
-    <row r="608" s="1" customFormat="1" spans="5:9">
+    <row r="608" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
       <c r="G608" s="6"/>
       <c r="H608" s="6"/>
       <c r="I608" s="6"/>
     </row>
-    <row r="609" s="1" customFormat="1" spans="1:9">
+    <row r="609" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
@@ -5652,14 +5096,14 @@
       <c r="H609" s="6"/>
       <c r="I609" s="6"/>
     </row>
-    <row r="610" s="1" customFormat="1" spans="5:9">
+    <row r="610" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
       <c r="H610" s="6"/>
       <c r="I610" s="6"/>
     </row>
-    <row r="611" s="1" customFormat="1" spans="1:9">
+    <row r="611" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
@@ -5669,14 +5113,14 @@
       <c r="H611" s="6"/>
       <c r="I611" s="6"/>
     </row>
-    <row r="612" s="1" customFormat="1" spans="5:9">
+    <row r="612" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
       <c r="G612" s="6"/>
       <c r="H612" s="6"/>
       <c r="I612" s="6"/>
     </row>
-    <row r="613" s="1" customFormat="1" spans="1:9">
+    <row r="613" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
@@ -5686,14 +5130,14 @@
       <c r="H613" s="6"/>
       <c r="I613" s="6"/>
     </row>
-    <row r="614" s="1" customFormat="1" spans="5:9">
+    <row r="614" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
       <c r="G614" s="6"/>
       <c r="H614" s="6"/>
       <c r="I614" s="6"/>
     </row>
-    <row r="615" s="1" customFormat="1" spans="1:9">
+    <row r="615" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A615" s="6"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
@@ -5703,20 +5147,20 @@
       <c r="H615" s="6"/>
       <c r="I615" s="6"/>
     </row>
-    <row r="616" s="1" customFormat="1" spans="5:9">
+    <row r="616" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
       <c r="G616" s="6"/>
       <c r="H616" s="6"/>
       <c r="I616" s="6"/>
     </row>
-    <row r="617" s="1" customFormat="1"/>
-    <row r="618" s="1" customFormat="1"/>
-    <row r="619" s="1" customFormat="1"/>
-    <row r="620" s="1" customFormat="1"/>
+    <row r="617" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>